--- a/biology/Microbiologie/Colliniidae/Colliniidae.xlsx
+++ b/biology/Microbiologie/Colliniidae/Colliniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colliniidae sont une famille de Ciliés de l’ordre des Apostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Collinia, dédié à B. Collin qui, en 1909, étudia l'une des espèces Collinia branchiarum Stein[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Collinia, dédié à B. Collin qui, en 1909, étudia l'une des espèces Collinia branchiarum Stein.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cépède présente ainsi trois espèces du genre Collinia[1] : « Ce sont des infusoires astomes (dépourvus de bouche) parasites du système circulatoire des Amphipodes et des Isopodes d'eau douce ; ils ont des stries d'insertion ciliaire très peu nombreuses. Leurs vacuoles contractiles sont en nombre variable selon la taille des individus ciliés assez polymorphes, comme Collinia circulans.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cépède présente ainsi trois espèces du genre Collinia : « Ce sont des infusoires astomes (dépourvus de bouche) parasites du système circulatoire des Amphipodes et des Isopodes d'eau douce ; ils ont des stries d'insertion ciliaire très peu nombreuses. Leurs vacuoles contractiles sont en nombre variable selon la taille des individus ciliés assez polymorphes, comme Collinia circulans.
 I. Longueur atteignant 120 μm. Parasite de l'appareil circulatoire de Gammarus pulex : Collinia branchiarum Stein.
 II. Longueur max. 60 μm. Parasite de l'app. circ. de Neoniphargus Moniezi Wrz. (en) : Collinia neoniphargi Cépède.
 III. Longueur 16 à 50 μm. Parasite de l'app. circ. d'Asellus aquaticus : Collinia circulans (Balbiani, 1885) Cépède, 1910. »</t>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est représentée un peu partout sur le globe[2] par des espèces marines[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est représentée un peu partout sur le globe par des espèces marines.
 </t>
         </is>
       </c>
@@ -606,17 +624,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (25 octobre 2023)[3] et GBIF       (25 octobre 2023)[2] :
-Collinia Cépède, 1910[1].
-Selon l'IRMNG  (25 octobre 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (25 octobre 2023) et GBIF       (25 octobre 2023) :
+Collinia Cépède, 1910.
+Selon l'IRMNG  (25 octobre 2023) :
 Collinia Cépède, 1910
 Pseudocollinia Gómez-Gutiérre, Strüder-Kypke, Lynn, Shaw, Aguilar-Méndez, López-Cortés, Martínez-Gómez &amp; Robinson, 2012
-Selon The Taxonomicon  (25 octobre 2023)[5] :
+Selon The Taxonomicon  (25 octobre 2023) :
 Collinia Cépède, 1910
 Metacollinia Jankowski, 1980
-Selon le NCBI  (25 octobre 2023)[6] :
+Selon le NCBI  (25 octobre 2023) :
 Collinia
 Lynnia
 Metacollinia
@@ -648,9 +668,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Colliniidae Cépède, 1910[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Colliniidae Cépède, 1910.
 </t>
         </is>
       </c>
